--- a/exports/output.xlsx
+++ b/exports/output.xlsx
@@ -8,8 +8,9 @@
   </bookViews>
   <sheets>
     <sheet name="Processados" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="Erros" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="Ignorados" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="Sem Alojamentos" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="Erros" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="Ignorados" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -427,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N9"/>
+  <dimension ref="A1:N32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -438,67 +439,67 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
+          <t>Alojamento</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
           <t>Concessionaria</t>
         </is>
       </c>
-      <c r="B1" s="1" t="inlineStr">
+      <c r="C1" s="1" t="inlineStr">
         <is>
           <t>Tipo Servico</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>N. Contrato</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>N. Cliente</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>N. Contribuinte</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>Local / Instalacao</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>N. Documento / N. Fatura</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>Periodo Referencia</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>Emissao</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>Vencimento</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>Valor</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
-        <is>
-          <t>Alojamento</t>
-        </is>
-      </c>
       <c r="M1" s="1" t="inlineStr">
         <is>
-          <t>Diretorio</t>
+          <t>Diretorio Google</t>
         </is>
       </c>
       <c r="N1" s="1" t="inlineStr">
@@ -510,530 +511,2026 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
+          <t>MS_Almada55_2DrTr</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
           <t>AGUAS_DE_PORTO</t>
         </is>
       </c>
-      <c r="B2" t="inlineStr">
+      <c r="C2" t="inlineStr">
         <is>
           <t>AGUA</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>5054289</t>
-        </is>
-      </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>4223046</t>
+          <t>4985873</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>311073026</t>
+          <t>4178288</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 10018181</t>
+          <t>304330965</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>230102709008303</t>
+          <t>10015220</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 2022-11-16 ~ 2023-01-05</t>
+          <t>230202709023681</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>05/1/2023</t>
+          <t xml:space="preserve"> 2023-01-11 ~ 2023-02-06</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>20/1/2023</t>
+          <t>09/2/2023</t>
         </is>
       </c>
       <c r="K2" t="inlineStr">
         <is>
-          <t>30,86</t>
+          <t>24/2/2023</t>
         </is>
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>LF_Conceicao67_2</t>
-        </is>
-      </c>
-      <c r="M2" t="inlineStr">
-        <is>
-          <t>LF_LaurenzFauser</t>
-        </is>
-      </c>
-      <c r="N2" t="inlineStr"/>
+          <t>11,92</t>
+        </is>
+      </c>
+      <c r="M2" t="inlineStr"/>
+      <c r="N2" t="inlineStr">
+        <is>
+          <t>/Users/sergio/work/Luiza/billing_mgmt/downloads/985.AR.DP.144257465.PDF</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
+          <t>JH_Conceicao67_22</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
           <t>AGUAS_DE_PORTO</t>
         </is>
       </c>
-      <c r="B3" t="inlineStr">
+      <c r="C3" t="inlineStr">
         <is>
           <t>AGUA</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>4957062</t>
-        </is>
-      </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>4159449</t>
+          <t>5025861</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>516059297</t>
+          <t>4204002</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 10015919</t>
+          <t>308003403</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>230102709026437</t>
+          <t>10018180</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 2022-12-15 ~ 2023-01-12</t>
+          <t>230202709014631</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>13/1/2023</t>
+          <t xml:space="preserve"> 2023-01-06 ~ 2023-02-06</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>28/1/2023</t>
+          <t>07/2/2023</t>
         </is>
       </c>
       <c r="K3" t="inlineStr">
         <is>
-          <t>47,17</t>
+          <t>22/2/2023</t>
         </is>
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>LV_Camoes719_RCTr</t>
-        </is>
-      </c>
-      <c r="M3" t="inlineStr">
-        <is>
-          <t>LV_LoboViajante</t>
-        </is>
-      </c>
-      <c r="N3" t="inlineStr"/>
+          <t>14,33</t>
+        </is>
+      </c>
+      <c r="M3" t="inlineStr"/>
+      <c r="N3" t="inlineStr">
+        <is>
+          <t>/Users/sergio/work/Luiza/billing_mgmt/downloads/985.AR.DP.144218788.PDF</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>AGUAS_DE_PORTO</t>
+          <t>KC_Pia24A_RCEs</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>AGUA</t>
+          <t>ALTICE_MEO</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>4951664</t>
+          <t>INTERNET</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>4140129</t>
+          <t>1415838073</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
+          <t>1436611532</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
           <t>515593354</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 34978</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>230102709031579</t>
-        </is>
-      </c>
+      <c r="G4" t="inlineStr"/>
       <c r="H4" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 2022-12-16 ~ 2023-01-13</t>
+          <t>A785124244</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>16/1/2023</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>31/1/2023</t>
+          <t>5/2/2023</t>
         </is>
       </c>
       <c r="K4" t="inlineStr">
         <is>
-          <t>38,97</t>
+          <t>24/2/2023</t>
         </is>
       </c>
       <c r="L4" t="inlineStr">
         <is>
-          <t>HC_Mouzinho213_1B</t>
-        </is>
-      </c>
-      <c r="M4" t="inlineStr">
-        <is>
-          <t>HC_HongChung</t>
-        </is>
-      </c>
-      <c r="N4" t="inlineStr"/>
+          <t>32,29</t>
+        </is>
+      </c>
+      <c r="M4" t="inlineStr"/>
+      <c r="N4" t="inlineStr">
+        <is>
+          <t>/Users/sergio/work/Luiza/billing_mgmt/downloads/FT_A_785124244.PDF</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>AGUAS_DE_PORTO</t>
+          <t>EG_Alcantara16_2Fr</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>AGUA</t>
+          <t>ALTICE_MEO</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>4996994</t>
+          <t>INTERNET</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>4177430</t>
+          <t>1432726057</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>516427474</t>
+          <t>1436611532</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 10017662</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>230102709039057</t>
-        </is>
-      </c>
+          <t>515593354</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
       <c r="H5" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 2022-12-20 ~ 2023-01-18</t>
+          <t>A785124243</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>19/1/2023</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>03/2/2023</t>
+          <t>5/2/2023</t>
         </is>
       </c>
       <c r="K5" t="inlineStr">
         <is>
-          <t>39,62</t>
+          <t>24/2/2023</t>
         </is>
       </c>
       <c r="L5" t="inlineStr">
         <is>
-          <t>CF_1Herculano17</t>
-        </is>
-      </c>
-      <c r="M5" t="inlineStr">
-        <is>
-          <t>CF_CasasFTU</t>
-        </is>
-      </c>
-      <c r="N5" t="inlineStr"/>
+          <t>32,29</t>
+        </is>
+      </c>
+      <c r="M5" t="inlineStr"/>
+      <c r="N5" t="inlineStr">
+        <is>
+          <t>/Users/sergio/work/Luiza/billing_mgmt/downloads/FT_A_785124243.PDF</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
+          <t>CF_1Herculano17</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
           <t>AGUAS_DE_PORTO</t>
         </is>
       </c>
-      <c r="B6" t="inlineStr">
+      <c r="C6" t="inlineStr">
         <is>
           <t>AGUA</t>
         </is>
       </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>4967688</t>
-        </is>
-      </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>4166519</t>
+          <t>4996994</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>303336439</t>
+          <t>4177430</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 160170</t>
+          <t>516427474</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>230202709009140</t>
+          <t>10017662</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 2022-12-29 ~ 2023-01-27</t>
+          <t>230102709039057</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>04/2/2023</t>
+          <t xml:space="preserve"> 2022-12-20 ~ 2023-01-18</t>
         </is>
       </c>
       <c r="J6" t="inlineStr">
         <is>
-          <t>20/2/2023</t>
+          <t>19/1/2023</t>
         </is>
       </c>
       <c r="K6" t="inlineStr">
         <is>
-          <t>35,51</t>
+          <t>03/2/2023</t>
         </is>
       </c>
       <c r="L6" t="inlineStr">
         <is>
-          <t>LS_Bessa641_4Dr</t>
-        </is>
-      </c>
-      <c r="M6" t="inlineStr">
-        <is>
-          <t>LS_LucieneSantos</t>
-        </is>
-      </c>
-      <c r="N6" t="inlineStr"/>
+          <t>39,62</t>
+        </is>
+      </c>
+      <c r="M6" t="inlineStr"/>
+      <c r="N6" t="inlineStr">
+        <is>
+          <t>/Users/sergio/work/Luiza/billing_mgmt/downloads/985.AR.DP.144063409.PDF</t>
+        </is>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
+          <t>MB_Tras156_RC</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
           <t>AGUAS_DE_PORTO</t>
         </is>
       </c>
-      <c r="B7" t="inlineStr">
+      <c r="C7" t="inlineStr">
         <is>
           <t>AGUA</t>
         </is>
       </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>5025861</t>
-        </is>
-      </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>4204002</t>
+          <t>5061060</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>308003403</t>
+          <t>4227864</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 10018180</t>
+          <t>515752223</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>230202709014631</t>
+          <t>189077</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 2023-01-06 ~ 2023-02-06</t>
+          <t>230202709014062</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
         <is>
+          <t xml:space="preserve"> 2023-01-10 ~ 2023-02-07</t>
+        </is>
+      </c>
+      <c r="J7" t="inlineStr">
+        <is>
           <t>07/2/2023</t>
         </is>
       </c>
-      <c r="J7" t="inlineStr">
-        <is>
-          <t>22/2/2023</t>
-        </is>
-      </c>
-      <c r="K7" t="inlineStr">
-        <is>
-          <t>14,33</t>
-        </is>
-      </c>
+      <c r="K7" t="inlineStr"/>
       <c r="L7" t="inlineStr">
         <is>
-          <t>JH_Conceicao67_22</t>
-        </is>
-      </c>
-      <c r="M7" t="inlineStr">
-        <is>
-          <t>JH_JonasHagele</t>
-        </is>
-      </c>
-      <c r="N7" t="inlineStr"/>
+          <t>26,83</t>
+        </is>
+      </c>
+      <c r="M7" t="inlineStr"/>
+      <c r="N7" t="inlineStr">
+        <is>
+          <t>/Users/sergio/work/Luiza/billing_mgmt/downloads/FATURA_AGUA_FEVEREIRO_FRACCAO_B_FT_93156047.PDF</t>
+        </is>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>AGUAS_DE_PORTO</t>
+          <t>MB_Tras156_1</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>AGUA</t>
+          <t>ALTICE_MEO</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>4985873</t>
+          <t>INTERNET</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>4178288</t>
+          <t>1448930852</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>304330965</t>
+          <t>1372961060</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 10015220</t>
-        </is>
-      </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>230202709023681</t>
-        </is>
-      </c>
+          <t>515752223</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
       <c r="H8" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 2023-01-11 ~ 2023-02-06</t>
+          <t>A786055079</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>09/2/2023</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="J8" t="inlineStr">
         <is>
-          <t>24/2/2023</t>
-        </is>
-      </c>
-      <c r="K8" t="inlineStr">
-        <is>
-          <t>11,92</t>
-        </is>
-      </c>
+          <t>17/2/2023</t>
+        </is>
+      </c>
+      <c r="K8" t="inlineStr"/>
       <c r="L8" t="inlineStr">
         <is>
-          <t>MS_Almada55_2DrTr</t>
-        </is>
-      </c>
-      <c r="M8" t="inlineStr">
-        <is>
-          <t>MS_MartinStuerchler</t>
-        </is>
-      </c>
-      <c r="N8" t="inlineStr"/>
+          <t>38,19</t>
+        </is>
+      </c>
+      <c r="M8" t="inlineStr"/>
+      <c r="N8" t="inlineStr">
+        <is>
+          <t>/Users/sergio/work/Luiza/billing_mgmt/downloads/FATURA_ALTICE_INTERNET_FT_A_786055079[1].PDF</t>
+        </is>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
+          <t>MB_Tras156_3</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
           <t>AGUAS_DE_PORTO</t>
         </is>
       </c>
-      <c r="B9" t="inlineStr">
+      <c r="C9" t="inlineStr">
         <is>
           <t>AGUA</t>
         </is>
       </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>5038938</t>
-        </is>
-      </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>4212935</t>
+          <t>5061085</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>304946427</t>
+          <t>4227864</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 10021322</t>
-        </is>
-      </c>
-      <c r="G9" t="inlineStr"/>
-      <c r="H9" t="inlineStr"/>
+          <t>515752223</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>10023323</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>230202709014048</t>
+        </is>
+      </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>24/2/2023</t>
-        </is>
-      </c>
-      <c r="J9" t="inlineStr"/>
+          <t xml:space="preserve"> 2023-01-10 ~ 2023-02-07</t>
+        </is>
+      </c>
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>07/2/2023</t>
+        </is>
+      </c>
       <c r="K9" t="inlineStr"/>
       <c r="L9" t="inlineStr">
         <is>
+          <t>22,76</t>
+        </is>
+      </c>
+      <c r="M9" t="inlineStr"/>
+      <c r="N9" t="inlineStr">
+        <is>
+          <t>/Users/sergio/work/Luiza/billing_mgmt/downloads/FATURA_AGUA_FEVEREIRO_FRACCAO_E_FT_93156033.PDF</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>JM_Cedofeita245_2TrEs</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>ALTICE_MEO</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>INTERNET</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>1443041568</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>1437041392</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>225637642</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>A785124583</t>
+        </is>
+      </c>
+      <c r="I10" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>5/2/2023</t>
+        </is>
+      </c>
+      <c r="K10" t="inlineStr">
+        <is>
+          <t>24/2/2023</t>
+        </is>
+      </c>
+      <c r="L10" t="inlineStr">
+        <is>
+          <t>35,00</t>
+        </is>
+      </c>
+      <c r="M10" t="inlineStr"/>
+      <c r="N10" t="inlineStr">
+        <is>
+          <t>/Users/sergio/work/Luiza/billing_mgmt/downloads/FT_A_785124583.PDF</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>AV_Guimaraes80_5</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>ALTICE_MEO</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>INTERNET</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>1489046711</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>1436611532</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>515593354</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>A785124569</t>
+        </is>
+      </c>
+      <c r="I11" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>5/2/2023</t>
+        </is>
+      </c>
+      <c r="K11" t="inlineStr">
+        <is>
+          <t>24/2/2023</t>
+        </is>
+      </c>
+      <c r="L11" t="inlineStr">
+        <is>
+          <t>30,00</t>
+        </is>
+      </c>
+      <c r="M11" t="inlineStr"/>
+      <c r="N11" t="inlineStr">
+        <is>
+          <t>/Users/sergio/work/Luiza/billing_mgmt/downloads/FT_A_785124569.PDF</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Despesas gerais do alojamento </t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>AGUAS_DE_PORTO</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>AGUA</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>5042378</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>4140129</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>515593354</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>206795</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>230102709051168</t>
+        </is>
+      </c>
+      <c r="I12" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 2022-12-24 ~ 2023-01-24</t>
+        </is>
+      </c>
+      <c r="J12" t="inlineStr">
+        <is>
+          <t>25/1/2023</t>
+        </is>
+      </c>
+      <c r="K12" t="inlineStr">
+        <is>
+          <t>09/2/2023</t>
+        </is>
+      </c>
+      <c r="L12" t="inlineStr">
+        <is>
+          <t>73,74</t>
+        </is>
+      </c>
+      <c r="M12" t="inlineStr"/>
+      <c r="N12" t="inlineStr">
+        <is>
+          <t>/Users/sergio/work/Luiza/billing_mgmt/downloads/985.AR.DP.144114948.PDF</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>MB_Tras156_1</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>AGUAS_DE_PORTO</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>AGUA</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>5061070</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>4227864</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>515752223</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>38836</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>230202709013196</t>
+        </is>
+      </c>
+      <c r="I13" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 2023-01-10 ~ 2023-02-07</t>
+        </is>
+      </c>
+      <c r="J13" t="inlineStr">
+        <is>
+          <t>07/2/2023</t>
+        </is>
+      </c>
+      <c r="K13" t="inlineStr"/>
+      <c r="L13" t="inlineStr">
+        <is>
+          <t>22,76</t>
+        </is>
+      </c>
+      <c r="M13" t="inlineStr"/>
+      <c r="N13" t="inlineStr">
+        <is>
+          <t>/Users/sergio/work/Luiza/billing_mgmt/downloads/FATURA_AGUA_FEVEREIRO_FRACCAO_C_FT_93155174.PDF</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
           <t>DM_Cedofeita630_RC Tr</t>
         </is>
       </c>
-      <c r="M9" t="inlineStr">
-        <is>
-          <t>DM_DouglasMello</t>
-        </is>
-      </c>
-      <c r="N9" t="inlineStr"/>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>AGUAS_DE_PORTO</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>AGUA</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>5038938</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>4212935</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>304946427</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>10021322</t>
+        </is>
+      </c>
+      <c r="H14" t="inlineStr"/>
+      <c r="I14" t="inlineStr"/>
+      <c r="J14" t="inlineStr">
+        <is>
+          <t>24/2/2023</t>
+        </is>
+      </c>
+      <c r="K14" t="inlineStr"/>
+      <c r="L14" t="inlineStr"/>
+      <c r="M14" t="inlineStr"/>
+      <c r="N14" t="inlineStr">
+        <is>
+          <t>/Users/sergio/work/Luiza/billing_mgmt/downloads/985.AR.DV.144369906.PDF</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>JH_Conceicao67_22</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>ALTICE_MEO</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>INTERNET</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>1488439015</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>1437238926</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>308003403</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr"/>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>A785124585</t>
+        </is>
+      </c>
+      <c r="I15" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="J15" t="inlineStr">
+        <is>
+          <t>5/2/2023</t>
+        </is>
+      </c>
+      <c r="K15" t="inlineStr">
+        <is>
+          <t>24/2/2023</t>
+        </is>
+      </c>
+      <c r="L15" t="inlineStr">
+        <is>
+          <t>36,08</t>
+        </is>
+      </c>
+      <c r="M15" t="inlineStr"/>
+      <c r="N15" t="inlineStr">
+        <is>
+          <t>/Users/sergio/work/Luiza/billing_mgmt/downloads/FT_A_785124585.PDF</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>CF_1Herculano17</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>ALTICE_MEO</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>INTERNET</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>1449134940</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>1419728541</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>516427474</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr"/>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>A783078439</t>
+        </is>
+      </c>
+      <c r="I16" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="J16" t="inlineStr">
+        <is>
+          <t>5/1/2023</t>
+        </is>
+      </c>
+      <c r="K16" t="inlineStr">
+        <is>
+          <t>25/1/2023</t>
+        </is>
+      </c>
+      <c r="L16" t="inlineStr">
+        <is>
+          <t>33,98</t>
+        </is>
+      </c>
+      <c r="M16" t="inlineStr"/>
+      <c r="N16" t="inlineStr">
+        <is>
+          <t>/Users/sergio/work/Luiza/billing_mgmt/downloads/FT_A_783078439.PDF</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>LF_Conceicao67_2</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>AGUAS_DE_PORTO</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>AGUA</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>5054289</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>4223046</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>311073026</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>10018181</t>
+        </is>
+      </c>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>230102709008303</t>
+        </is>
+      </c>
+      <c r="I17" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 2022-11-16 ~ 2023-01-05</t>
+        </is>
+      </c>
+      <c r="J17" t="inlineStr">
+        <is>
+          <t>05/1/2023</t>
+        </is>
+      </c>
+      <c r="K17" t="inlineStr">
+        <is>
+          <t>20/1/2023</t>
+        </is>
+      </c>
+      <c r="L17" t="inlineStr">
+        <is>
+          <t>30,86</t>
+        </is>
+      </c>
+      <c r="M17" t="inlineStr"/>
+      <c r="N17" t="inlineStr">
+        <is>
+          <t>/Users/sergio/work/Luiza/billing_mgmt/downloads/985.AR.DP.143909844.PDF</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>BD_Fernandes108_4</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>AGUAS_DE_GAIA</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>AGUA</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>4095190/001</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>4095190</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>295782340</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>10016074</t>
+        </is>
+      </c>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t>23010362003056499</t>
+        </is>
+      </c>
+      <c r="I18" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 2022-12-23 ~ 2023-01-23</t>
+        </is>
+      </c>
+      <c r="J18" t="inlineStr">
+        <is>
+          <t>24/1/2023</t>
+        </is>
+      </c>
+      <c r="K18" t="inlineStr">
+        <is>
+          <t>08/2/2023</t>
+        </is>
+      </c>
+      <c r="L18" t="inlineStr">
+        <is>
+          <t>40,55</t>
+        </is>
+      </c>
+      <c r="M18" t="inlineStr"/>
+      <c r="N18" t="inlineStr">
+        <is>
+          <t>/Users/sergio/work/Luiza/billing_mgmt/downloads/036.DP.23010362003056499.PDF</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>RM_Victor104_J</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>ALTICE_MEO</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>INTERNET</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>1490136235</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>1436611532</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>515593354</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr"/>
+      <c r="H19" t="inlineStr">
+        <is>
+          <t>A785124576</t>
+        </is>
+      </c>
+      <c r="I19" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="J19" t="inlineStr">
+        <is>
+          <t>5/2/2023</t>
+        </is>
+      </c>
+      <c r="K19" t="inlineStr">
+        <is>
+          <t>24/2/2023</t>
+        </is>
+      </c>
+      <c r="L19" t="inlineStr">
+        <is>
+          <t>32,29</t>
+        </is>
+      </c>
+      <c r="M19" t="inlineStr"/>
+      <c r="N19" t="inlineStr">
+        <is>
+          <t>/Users/sergio/work/Luiza/billing_mgmt/downloads/FT_A_785124576.PDF</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>VL_Infante45_5P</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>ALTICE_MEO</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>INTERNET</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>1425932341</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>1436611532</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>515593354</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr"/>
+      <c r="H20" t="inlineStr">
+        <is>
+          <t>A785124589</t>
+        </is>
+      </c>
+      <c r="I20" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="J20" t="inlineStr">
+        <is>
+          <t>5/2/2023</t>
+        </is>
+      </c>
+      <c r="K20" t="inlineStr">
+        <is>
+          <t>24/2/2023</t>
+        </is>
+      </c>
+      <c r="L20" t="inlineStr">
+        <is>
+          <t>32,79</t>
+        </is>
+      </c>
+      <c r="M20" t="inlineStr"/>
+      <c r="N20" t="inlineStr">
+        <is>
+          <t>/Users/sergio/work/Luiza/billing_mgmt/downloads/FT_A_785124589.PDF</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>MB_Tras156_2</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>AGUAS_DE_PORTO</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>AGUA</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>5061073</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>4227864</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>515752223</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>10023322</t>
+        </is>
+      </c>
+      <c r="H21" t="inlineStr">
+        <is>
+          <t>230202709012358</t>
+        </is>
+      </c>
+      <c r="I21" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 2023-01-10 ~ 2023-02-07</t>
+        </is>
+      </c>
+      <c r="J21" t="inlineStr">
+        <is>
+          <t>07/2/2023</t>
+        </is>
+      </c>
+      <c r="K21" t="inlineStr"/>
+      <c r="L21" t="inlineStr">
+        <is>
+          <t>22,76</t>
+        </is>
+      </c>
+      <c r="M21" t="inlineStr"/>
+      <c r="N21" t="inlineStr">
+        <is>
+          <t>/Users/sergio/work/Luiza/billing_mgmt/downloads/FATURA_AGUA_FEVEREIRO_FRACCAO_D_FT_93154312.PDF</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Despesas gerais do alojamento </t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>AGUAS_DE_PORTO</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>AGUA</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>5042378</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>4140129</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>515593354</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>206795</t>
+        </is>
+      </c>
+      <c r="H22" t="inlineStr">
+        <is>
+          <t>230202709050231</t>
+        </is>
+      </c>
+      <c r="I22" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 2023-01-25 ~ 2023-02-20</t>
+        </is>
+      </c>
+      <c r="J22" t="inlineStr">
+        <is>
+          <t>20/2/2023</t>
+        </is>
+      </c>
+      <c r="K22" t="inlineStr">
+        <is>
+          <t>07/3/2023</t>
+        </is>
+      </c>
+      <c r="L22" t="inlineStr">
+        <is>
+          <t>63,85</t>
+        </is>
+      </c>
+      <c r="M22" t="inlineStr"/>
+      <c r="N22" t="inlineStr">
+        <is>
+          <t>/Users/sergio/work/Luiza/billing_mgmt/downloads/985.AR.DP.144361356.PDF</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>KC_Pia24A_RCEs</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>EPAL</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>AGUA</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>202320263422</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>29985862</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>650684</t>
+        </is>
+      </c>
+      <c r="H23" t="inlineStr">
+        <is>
+          <t>20230/00260300</t>
+        </is>
+      </c>
+      <c r="I23" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 2023.01.03 a 2023.02.02</t>
+        </is>
+      </c>
+      <c r="J23" t="inlineStr">
+        <is>
+          <t>03/02/2023</t>
+        </is>
+      </c>
+      <c r="K23" t="inlineStr">
+        <is>
+          <t>28/02/2023</t>
+        </is>
+      </c>
+      <c r="L23" t="inlineStr">
+        <is>
+          <t>86,58</t>
+        </is>
+      </c>
+      <c r="M23" t="inlineStr"/>
+      <c r="N23" t="inlineStr">
+        <is>
+          <t>/Users/sergio/work/Luiza/billing_mgmt/downloads/202300260300.PDF</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>MB_Tras156_3</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>ALTICE_MEO</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>INTERNET</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>1419930859</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>1372961060</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>515752223</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr"/>
+      <c r="H24" t="inlineStr">
+        <is>
+          <t>A786055078</t>
+        </is>
+      </c>
+      <c r="I24" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="J24" t="inlineStr">
+        <is>
+          <t>17/2/2023</t>
+        </is>
+      </c>
+      <c r="K24" t="inlineStr"/>
+      <c r="L24" t="inlineStr">
+        <is>
+          <t>38,19</t>
+        </is>
+      </c>
+      <c r="M24" t="inlineStr"/>
+      <c r="N24" t="inlineStr">
+        <is>
+          <t>/Users/sergio/work/Luiza/billing_mgmt/downloads/FATURA_ALTICE_INTERNET_FT_A_786055078[1].PDF</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>OD_Ribeira26_1Es</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>EPAL</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>AGUA</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>202320238812</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>28689275</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>6803873</t>
+        </is>
+      </c>
+      <c r="H25" t="inlineStr">
+        <is>
+          <t>20230/00235923</t>
+        </is>
+      </c>
+      <c r="I25" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 2022.12.22 a 2023.01.21</t>
+        </is>
+      </c>
+      <c r="J25" t="inlineStr">
+        <is>
+          <t>24/01/2023</t>
+        </is>
+      </c>
+      <c r="K25" t="inlineStr">
+        <is>
+          <t>15/02/2023</t>
+        </is>
+      </c>
+      <c r="L25" t="inlineStr">
+        <is>
+          <t>37,49</t>
+        </is>
+      </c>
+      <c r="M25" t="inlineStr"/>
+      <c r="N25" t="inlineStr">
+        <is>
+          <t>/Users/sergio/work/Luiza/billing_mgmt/downloads/202300235923.PDF</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>LS_Bessa641_4Dr</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>AGUAS_DE_PORTO</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>AGUA</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>4967688</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>4166519</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>303336439</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>160170</t>
+        </is>
+      </c>
+      <c r="H26" t="inlineStr">
+        <is>
+          <t>230202709009140</t>
+        </is>
+      </c>
+      <c r="I26" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 2022-12-29 ~ 2023-01-27</t>
+        </is>
+      </c>
+      <c r="J26" t="inlineStr">
+        <is>
+          <t>04/2/2023</t>
+        </is>
+      </c>
+      <c r="K26" t="inlineStr">
+        <is>
+          <t>20/2/2023</t>
+        </is>
+      </c>
+      <c r="L26" t="inlineStr">
+        <is>
+          <t>35,51</t>
+        </is>
+      </c>
+      <c r="M26" t="inlineStr"/>
+      <c r="N26" t="inlineStr">
+        <is>
+          <t>/Users/sergio/work/Luiza/billing_mgmt/downloads/AGPT_985.AR.DP.144171436.PDF</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>KC_Pia24A_RCEs</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>EPAL</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>AGUA</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>202320000846</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>29985862</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>650684</t>
+        </is>
+      </c>
+      <c r="H27" t="inlineStr">
+        <is>
+          <t>20230/00000819</t>
+        </is>
+      </c>
+      <c r="I27" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 2022.12.02 a 2023.01.02</t>
+        </is>
+      </c>
+      <c r="J27" t="inlineStr">
+        <is>
+          <t>03/01/2023</t>
+        </is>
+      </c>
+      <c r="K27" t="inlineStr">
+        <is>
+          <t>25/01/2023</t>
+        </is>
+      </c>
+      <c r="L27" t="inlineStr">
+        <is>
+          <t>87,16</t>
+        </is>
+      </c>
+      <c r="M27" t="inlineStr"/>
+      <c r="N27" t="inlineStr">
+        <is>
+          <t>/Users/sergio/work/Luiza/billing_mgmt/downloads/202300000819.PDF</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>EG_Alcantara16_2Fr</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>EPAL</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>AGUA</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>202320214962</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>29532671</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>6667198</t>
+        </is>
+      </c>
+      <c r="H28" t="inlineStr">
+        <is>
+          <t>20230/00212309</t>
+        </is>
+      </c>
+      <c r="I28" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 2022.12.22 a 2023.01.20</t>
+        </is>
+      </c>
+      <c r="J28" t="inlineStr">
+        <is>
+          <t>23/01/2023</t>
+        </is>
+      </c>
+      <c r="K28" t="inlineStr">
+        <is>
+          <t>14/02/2023</t>
+        </is>
+      </c>
+      <c r="L28" t="inlineStr">
+        <is>
+          <t>50,98</t>
+        </is>
+      </c>
+      <c r="M28" t="inlineStr"/>
+      <c r="N28" t="inlineStr">
+        <is>
+          <t>/Users/sergio/work/Luiza/billing_mgmt/downloads/202300212309.PDF</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>HC_Mouzinho213_1B</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>AGUAS_DE_PORTO</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>AGUA</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>4951664</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>4140129</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>515593354</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>34978</t>
+        </is>
+      </c>
+      <c r="H29" t="inlineStr">
+        <is>
+          <t>230102709031579</t>
+        </is>
+      </c>
+      <c r="I29" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 2022-12-16 ~ 2023-01-13</t>
+        </is>
+      </c>
+      <c r="J29" t="inlineStr">
+        <is>
+          <t>16/1/2023</t>
+        </is>
+      </c>
+      <c r="K29" t="inlineStr">
+        <is>
+          <t>31/1/2023</t>
+        </is>
+      </c>
+      <c r="L29" t="inlineStr">
+        <is>
+          <t>38,97</t>
+        </is>
+      </c>
+      <c r="M29" t="inlineStr"/>
+      <c r="N29" t="inlineStr">
+        <is>
+          <t>/Users/sergio/work/Luiza/billing_mgmt/downloads/985.AR.DP.144030538.PDF</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>JB_Monteiro122_D</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>ALTICE_MEO</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>INTERNET</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>1493741295</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>1493741297</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>305731858</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr"/>
+      <c r="H30" t="inlineStr">
+        <is>
+          <t>A786625313</t>
+        </is>
+      </c>
+      <c r="I30" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="J30" t="inlineStr">
+        <is>
+          <t>23/2/2023</t>
+        </is>
+      </c>
+      <c r="K30" t="inlineStr">
+        <is>
+          <t>15/3/2023</t>
+        </is>
+      </c>
+      <c r="L30" t="inlineStr">
+        <is>
+          <t>36,59</t>
+        </is>
+      </c>
+      <c r="M30" t="inlineStr"/>
+      <c r="N30" t="inlineStr">
+        <is>
+          <t>/Users/sergio/work/Luiza/billing_mgmt/downloads/FT_A_786625313.PDF</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>BD_Fernandes108_4</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>AGUAS_DE_GAIA</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>AGUA</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>4095190/001</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>4095190</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>295782340</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>10016074</t>
+        </is>
+      </c>
+      <c r="H31" t="inlineStr">
+        <is>
+          <t>22110362002783799</t>
+        </is>
+      </c>
+      <c r="I31" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 2022-10-20 ~ 2022-11-21</t>
+        </is>
+      </c>
+      <c r="J31" t="inlineStr">
+        <is>
+          <t>23/11/2022</t>
+        </is>
+      </c>
+      <c r="K31" t="inlineStr">
+        <is>
+          <t>12/12/2022</t>
+        </is>
+      </c>
+      <c r="L31" t="inlineStr">
+        <is>
+          <t>62,48</t>
+        </is>
+      </c>
+      <c r="M31" t="inlineStr"/>
+      <c r="N31" t="inlineStr">
+        <is>
+          <t>/Users/sergio/work/Luiza/billing_mgmt/downloads/ÁGUAS_DE_GAIA.PDF</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>LV_Camoes719_RCTr</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>AGUAS_DE_PORTO</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>AGUA</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>4957062</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>4159449</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>516059297</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>10015919</t>
+        </is>
+      </c>
+      <c r="H32" t="inlineStr">
+        <is>
+          <t>230102709026437</t>
+        </is>
+      </c>
+      <c r="I32" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 2022-12-15 ~ 2023-01-12</t>
+        </is>
+      </c>
+      <c r="J32" t="inlineStr">
+        <is>
+          <t>13/1/2023</t>
+        </is>
+      </c>
+      <c r="K32" t="inlineStr">
+        <is>
+          <t>28/1/2023</t>
+        </is>
+      </c>
+      <c r="L32" t="inlineStr">
+        <is>
+          <t>47,17</t>
+        </is>
+      </c>
+      <c r="M32" t="inlineStr"/>
+      <c r="N32" t="inlineStr">
+        <is>
+          <t>/Users/sergio/work/Luiza/billing_mgmt/downloads/985.AR.DP.144007813.PDF</t>
+        </is>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -1041,6 +2538,1369 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:N24"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Alojamento</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Concessionaria</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Tipo Servico</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>N. Contrato</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>N. Cliente</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>N. Contribuinte</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>Local / Instalacao</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>N. Documento / N. Fatura</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>Periodo Referencia</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>Emissao</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>Vencimento</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>Valor</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>Diretorio Google</t>
+        </is>
+      </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>Arquivo</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr"/>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>EDP</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>INTERNET</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>196004659447</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 25 de dezembro 2022 a 24 de janeiro 2023</t>
+        </is>
+      </c>
+      <c r="J2" t="inlineStr">
+        <is>
+          <t>26/1/2023</t>
+        </is>
+      </c>
+      <c r="K2" t="inlineStr">
+        <is>
+          <t>17/2/2023</t>
+        </is>
+      </c>
+      <c r="L2" t="inlineStr">
+        <is>
+          <t>114,28</t>
+        </is>
+      </c>
+      <c r="M2" t="inlineStr"/>
+      <c r="N2" t="inlineStr">
+        <is>
+          <t>/Users/sergio/work/Luiza/billing_mgmt/downloads/196004659447.PDF</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr"/>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>EDP</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>INTERNET</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>192004801773</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 27 de dezembro 2022 a 10 de fevereiro 2023</t>
+        </is>
+      </c>
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>16/2/2023</t>
+        </is>
+      </c>
+      <c r="K3" t="inlineStr"/>
+      <c r="L3" t="inlineStr">
+        <is>
+          <t>123,33</t>
+        </is>
+      </c>
+      <c r="M3" t="inlineStr"/>
+      <c r="N3" t="inlineStr">
+        <is>
+          <t>/Users/sergio/work/Luiza/billing_mgmt/downloads/FATURA_EDP_FEVEREIRO_PISO_1_FT2023_K3423_340007048257[1].PDF</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr"/>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>ALTICE_MEO</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>INTERNET</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>1424424664</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>1424424667</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>295782340</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>FTA/785004627</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>2/2/2023</t>
+        </is>
+      </c>
+      <c r="K4" t="inlineStr">
+        <is>
+          <t>22/2/2023</t>
+        </is>
+      </c>
+      <c r="L4" t="inlineStr">
+        <is>
+          <t>81,48</t>
+        </is>
+      </c>
+      <c r="M4" t="inlineStr"/>
+      <c r="N4" t="inlineStr">
+        <is>
+          <t>/Users/sergio/work/Luiza/billing_mgmt/downloads/MEOA_FT_A_785004627.PDF</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr"/>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>EDP</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>INTERNET</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>222001527266</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 25 de dezembro 2022 a 24 de janeiro 2023</t>
+        </is>
+      </c>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>27/1/2023</t>
+        </is>
+      </c>
+      <c r="K5" t="inlineStr">
+        <is>
+          <t>17/2/2023</t>
+        </is>
+      </c>
+      <c r="L5" t="inlineStr">
+        <is>
+          <t>76,39</t>
+        </is>
+      </c>
+      <c r="M5" t="inlineStr"/>
+      <c r="N5" t="inlineStr">
+        <is>
+          <t>/Users/sergio/work/Luiza/billing_mgmt/downloads/222001527266.PDF</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr"/>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>ALTICE_MEO</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>INTERNET</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr"/>
+      <c r="E6" t="inlineStr"/>
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr"/>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="J6" t="inlineStr"/>
+      <c r="K6" t="inlineStr"/>
+      <c r="L6" t="inlineStr"/>
+      <c r="M6" t="inlineStr"/>
+      <c r="N6" t="inlineStr">
+        <is>
+          <t>/Users/sergio/work/Luiza/billing_mgmt/downloads/MEO_FT_A_780912697.PDF</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr"/>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>EDP</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>INTERNET</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>222001525704</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 15 de dezembro 2022 a 14 de janeiro 2023</t>
+        </is>
+      </c>
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>26/1/2023</t>
+        </is>
+      </c>
+      <c r="K7" t="inlineStr">
+        <is>
+          <t>17/2/2023</t>
+        </is>
+      </c>
+      <c r="L7" t="inlineStr">
+        <is>
+          <t>87,79</t>
+        </is>
+      </c>
+      <c r="M7" t="inlineStr"/>
+      <c r="N7" t="inlineStr">
+        <is>
+          <t>/Users/sergio/work/Luiza/billing_mgmt/downloads/222001525704.PDF</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr"/>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>EDP</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>INTERNET</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>106007420385</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 14 de dezembro 2022 a 13 de janeiro 2023</t>
+        </is>
+      </c>
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>15/1/2023</t>
+        </is>
+      </c>
+      <c r="K8" t="inlineStr">
+        <is>
+          <t>3/2/2023</t>
+        </is>
+      </c>
+      <c r="L8" t="inlineStr">
+        <is>
+          <t>216,44</t>
+        </is>
+      </c>
+      <c r="M8" t="inlineStr"/>
+      <c r="N8" t="inlineStr">
+        <is>
+          <t>/Users/sergio/work/Luiza/billing_mgmt/downloads/106007420385.PDF</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr"/>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>EDP</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>INTERNET</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>240000890352</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 6 de janeiro a 5 de fevereiro 2023</t>
+        </is>
+      </c>
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>8/2/2023</t>
+        </is>
+      </c>
+      <c r="K9" t="inlineStr">
+        <is>
+          <t>2/3/2023</t>
+        </is>
+      </c>
+      <c r="L9" t="inlineStr">
+        <is>
+          <t>183,74</t>
+        </is>
+      </c>
+      <c r="M9" t="inlineStr"/>
+      <c r="N9" t="inlineStr">
+        <is>
+          <t>/Users/sergio/work/Luiza/billing_mgmt/downloads/240000890352.PDF</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr"/>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>AGUAS_DE_PORTO</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>AGUA</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>5061371</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>4227864</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>515752223</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>189078</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>230202709013201</t>
+        </is>
+      </c>
+      <c r="I10" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 2023-01-10 ~ 2023-02-07</t>
+        </is>
+      </c>
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>07/2/2023</t>
+        </is>
+      </c>
+      <c r="K10" t="inlineStr"/>
+      <c r="L10" t="inlineStr">
+        <is>
+          <t>18,64</t>
+        </is>
+      </c>
+      <c r="M10" t="inlineStr"/>
+      <c r="N10" t="inlineStr">
+        <is>
+          <t>/Users/sergio/work/Luiza/billing_mgmt/downloads/FATURA_AGUA_FEVEREIRO_FRACCAO_SC_FT_93155179.PDF</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr"/>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>EDP</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>INTERNET</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>174005151846</t>
+        </is>
+      </c>
+      <c r="I11" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 1 de janeiro a 31 de janeiro 2023</t>
+        </is>
+      </c>
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>5/2/2023</t>
+        </is>
+      </c>
+      <c r="K11" t="inlineStr">
+        <is>
+          <t>28/2/2023</t>
+        </is>
+      </c>
+      <c r="L11" t="inlineStr">
+        <is>
+          <t>100,93</t>
+        </is>
+      </c>
+      <c r="M11" t="inlineStr"/>
+      <c r="N11" t="inlineStr">
+        <is>
+          <t>/Users/sergio/work/Luiza/billing_mgmt/downloads/174005151846.PDF</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr"/>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>EDP</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>INTERNET</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr"/>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>202004451939</t>
+        </is>
+      </c>
+      <c r="I12" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 11 de dezembro 2022 a 10 de janeiro 2023</t>
+        </is>
+      </c>
+      <c r="J12" t="inlineStr">
+        <is>
+          <t>12/1/2023</t>
+        </is>
+      </c>
+      <c r="K12" t="inlineStr">
+        <is>
+          <t>2/2/2023</t>
+        </is>
+      </c>
+      <c r="L12" t="inlineStr">
+        <is>
+          <t>93,04</t>
+        </is>
+      </c>
+      <c r="M12" t="inlineStr"/>
+      <c r="N12" t="inlineStr">
+        <is>
+          <t>/Users/sergio/work/Luiza/billing_mgmt/downloads/202004451939.PDF</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr"/>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>VODAFONE</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>INTERNET</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>313195644</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>516059297</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr"/>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>101/047610399</t>
+        </is>
+      </c>
+      <c r="I13" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 23 nov a 22 dez</t>
+        </is>
+      </c>
+      <c r="J13" t="inlineStr">
+        <is>
+          <t>27/12/2022</t>
+        </is>
+      </c>
+      <c r="K13" t="inlineStr">
+        <is>
+          <t>18/1/2023</t>
+        </is>
+      </c>
+      <c r="L13" t="inlineStr">
+        <is>
+          <t>29,90</t>
+        </is>
+      </c>
+      <c r="M13" t="inlineStr"/>
+      <c r="N13" t="inlineStr">
+        <is>
+          <t>/Users/sergio/work/Luiza/billing_mgmt/downloads/FATURA_20221223.PDF</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr"/>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>EDP</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>INTERNET</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr"/>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>236001161058</t>
+        </is>
+      </c>
+      <c r="I14" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 16 de dezembro 2022 a 15 de janeiro 2023</t>
+        </is>
+      </c>
+      <c r="J14" t="inlineStr">
+        <is>
+          <t>24/1/2023</t>
+        </is>
+      </c>
+      <c r="K14" t="inlineStr">
+        <is>
+          <t>17/2/2023</t>
+        </is>
+      </c>
+      <c r="L14" t="inlineStr">
+        <is>
+          <t>180,43</t>
+        </is>
+      </c>
+      <c r="M14" t="inlineStr"/>
+      <c r="N14" t="inlineStr">
+        <is>
+          <t>/Users/sergio/work/Luiza/billing_mgmt/downloads/236001161058.PDF</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr"/>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>ALTICE_MEO</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>INTERNET</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr"/>
+      <c r="E15" t="inlineStr"/>
+      <c r="F15" t="inlineStr"/>
+      <c r="G15" t="inlineStr"/>
+      <c r="H15" t="inlineStr"/>
+      <c r="I15" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="J15" t="inlineStr"/>
+      <c r="K15" t="inlineStr"/>
+      <c r="L15" t="inlineStr">
+        <is>
+          <t>0,00</t>
+        </is>
+      </c>
+      <c r="M15" t="inlineStr"/>
+      <c r="N15" t="inlineStr">
+        <is>
+          <t>/Users/sergio/work/Luiza/billing_mgmt/downloads/FATURAS ZERADAS ALTICE(MEO).PDF</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr"/>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>EDP</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>INTERNET</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr"/>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>218003033666</t>
+        </is>
+      </c>
+      <c r="I16" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 31 de janeiro a 28 de fevereiro 2023</t>
+        </is>
+      </c>
+      <c r="J16" t="inlineStr">
+        <is>
+          <t>1/3/2023</t>
+        </is>
+      </c>
+      <c r="K16" t="inlineStr">
+        <is>
+          <t>22/3/2023</t>
+        </is>
+      </c>
+      <c r="L16" t="inlineStr">
+        <is>
+          <t>90,56</t>
+        </is>
+      </c>
+      <c r="M16" t="inlineStr"/>
+      <c r="N16" t="inlineStr">
+        <is>
+          <t>/Users/sergio/work/Luiza/billing_mgmt/downloads/218003033666.PDF</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr"/>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>VODAFONE</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>INTERNET</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>313695986</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>306049368</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr"/>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>101/049255178</t>
+        </is>
+      </c>
+      <c r="I17" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 23 dez a 22 jan</t>
+        </is>
+      </c>
+      <c r="J17" t="inlineStr">
+        <is>
+          <t>27/01/2023</t>
+        </is>
+      </c>
+      <c r="K17" t="inlineStr">
+        <is>
+          <t>17/2/2023</t>
+        </is>
+      </c>
+      <c r="L17" t="inlineStr">
+        <is>
+          <t>34,90</t>
+        </is>
+      </c>
+      <c r="M17" t="inlineStr"/>
+      <c r="N17" t="inlineStr">
+        <is>
+          <t>/Users/sergio/work/Luiza/billing_mgmt/downloads/FATURA_20230123.PDF</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr"/>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>EDP</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>INTERNET</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr"/>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t>186004852621</t>
+        </is>
+      </c>
+      <c r="I18" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 17 de dezembro 2022 a 16 de janeiro 2023</t>
+        </is>
+      </c>
+      <c r="J18" t="inlineStr">
+        <is>
+          <t>18/1/2023</t>
+        </is>
+      </c>
+      <c r="K18" t="inlineStr">
+        <is>
+          <t>8/2/2023</t>
+        </is>
+      </c>
+      <c r="L18" t="inlineStr">
+        <is>
+          <t>86,67</t>
+        </is>
+      </c>
+      <c r="M18" t="inlineStr"/>
+      <c r="N18" t="inlineStr">
+        <is>
+          <t>/Users/sergio/work/Luiza/billing_mgmt/downloads/186004852621.PDF</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr"/>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>ALTICE_MEO</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>INTERNET</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>1489445745</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>1499445741</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>306076497</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr"/>
+      <c r="H19" t="inlineStr">
+        <is>
+          <t>A780329032</t>
+        </is>
+      </c>
+      <c r="I19" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="J19" t="inlineStr">
+        <is>
+          <t>24/11/2022</t>
+        </is>
+      </c>
+      <c r="K19" t="inlineStr">
+        <is>
+          <t>16/12/2022</t>
+        </is>
+      </c>
+      <c r="L19" t="inlineStr">
+        <is>
+          <t>1,18</t>
+        </is>
+      </c>
+      <c r="M19" t="inlineStr"/>
+      <c r="N19" t="inlineStr">
+        <is>
+          <t>/Users/sergio/work/Luiza/billing_mgmt/downloads/FT_A_780329032.PDF</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr"/>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>GALP</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>AGUA</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>1518998</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>304946427</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr"/>
+      <c r="H20" t="inlineStr">
+        <is>
+          <t>FT0001/124584742</t>
+        </is>
+      </c>
+      <c r="I20" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 23 DEZ 2022 a 26 JAN 2023</t>
+        </is>
+      </c>
+      <c r="J20" t="inlineStr">
+        <is>
+          <t>30/1/2023</t>
+        </is>
+      </c>
+      <c r="K20" t="inlineStr">
+        <is>
+          <t>20/2/2023</t>
+        </is>
+      </c>
+      <c r="L20" t="inlineStr">
+        <is>
+          <t>150,90</t>
+        </is>
+      </c>
+      <c r="M20" t="inlineStr"/>
+      <c r="N20" t="inlineStr">
+        <is>
+          <t>/Users/sergio/work/Luiza/billing_mgmt/downloads/GALP_BB_232690858904.PDF</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr"/>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>VODAFONE</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>INTERNET</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr"/>
+      <c r="H21" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="I21" t="inlineStr"/>
+      <c r="J21" t="inlineStr"/>
+      <c r="K21" t="inlineStr"/>
+      <c r="L21" t="inlineStr"/>
+      <c r="M21" t="inlineStr"/>
+      <c r="N21" t="inlineStr">
+        <is>
+          <t>/Users/sergio/work/Luiza/billing_mgmt/downloads/DETALHE_FATURA_20230123.PDF</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr"/>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>EDP</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>INTERNET</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr"/>
+      <c r="H22" t="inlineStr">
+        <is>
+          <t>192004801774</t>
+        </is>
+      </c>
+      <c r="I22" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 27 de dezembro 2022 a 10 de fevereiro 2023</t>
+        </is>
+      </c>
+      <c r="J22" t="inlineStr">
+        <is>
+          <t>16/2/2023</t>
+        </is>
+      </c>
+      <c r="K22" t="inlineStr"/>
+      <c r="L22" t="inlineStr">
+        <is>
+          <t>123,33</t>
+        </is>
+      </c>
+      <c r="M22" t="inlineStr"/>
+      <c r="N22" t="inlineStr">
+        <is>
+          <t>/Users/sergio/work/Luiza/billing_mgmt/downloads/FATURA_EDP_FEVERIRO_PISO_3_FT2023_K3423_340007048258[1].PDF</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr"/>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>NOS</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>INTERNET</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>C847614993</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>515593354</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr"/>
+      <c r="H23" t="inlineStr">
+        <is>
+          <t>FT202291/2480888</t>
+        </is>
+      </c>
+      <c r="I23" t="inlineStr">
+        <is>
+          <t>Outubro de 2022</t>
+        </is>
+      </c>
+      <c r="J23" t="inlineStr">
+        <is>
+          <t>11/10/2022</t>
+        </is>
+      </c>
+      <c r="K23" t="inlineStr"/>
+      <c r="L23" t="inlineStr">
+        <is>
+          <t>34,24</t>
+        </is>
+      </c>
+      <c r="M23" t="inlineStr"/>
+      <c r="N23" t="inlineStr">
+        <is>
+          <t>/Users/sergio/work/Luiza/billing_mgmt/downloads/NOS.PDF</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr"/>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>ALTICE_MEO</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>INTERNET</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr"/>
+      <c r="E24" t="inlineStr"/>
+      <c r="F24" t="inlineStr"/>
+      <c r="G24" t="inlineStr"/>
+      <c r="H24" t="inlineStr"/>
+      <c r="I24" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="J24" t="inlineStr"/>
+      <c r="K24" t="inlineStr"/>
+      <c r="L24" t="inlineStr"/>
+      <c r="M24" t="inlineStr"/>
+      <c r="N24" t="inlineStr">
+        <is>
+          <t>/Users/sergio/work/Luiza/billing_mgmt/downloads/FT_MV_557562547.PDF</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1057,67 +3917,67 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
+          <t>Alojamento</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
           <t>Concessionaria</t>
         </is>
       </c>
-      <c r="B1" s="1" t="inlineStr">
+      <c r="C1" s="1" t="inlineStr">
         <is>
           <t>Tipo Servico</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>N. Contrato</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>N. Cliente</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>N. Contribuinte</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>Local / Instalacao</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>N. Documento / N. Fatura</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>Periodo Referencia</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>Emissao</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>Vencimento</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>Valor</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
-        <is>
-          <t>Alojamento</t>
-        </is>
-      </c>
       <c r="M1" s="1" t="inlineStr">
         <is>
-          <t>Diretorio</t>
+          <t>Diretorio Google</t>
         </is>
       </c>
       <c r="N1" s="1" t="inlineStr">
@@ -1131,13 +3991,13 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B1"/>
+  <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1157,6 +4017,42 @@
         </is>
       </c>
     </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>Arquivo não reconhecido ou fora do formato /Users/sergio/work/Luiza/billing_mgmt/downloads/NEWS_ALTICEEMP_FEV23.PDF</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>/Users/sergio/work/Luiza/billing_mgmt/downloads/NEWS_ALTICEEMP_FEV23.PDF</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>Arquivo não reconhecido ou fora do formato /Users/sergio/work/Luiza/billing_mgmt/downloads/MEONEWS_FEV_2023.PDF</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>/Users/sergio/work/Luiza/billing_mgmt/downloads/MEONEWS_FEV_2023.PDF</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>Arquivo não reconhecido ou fora do formato /Users/sergio/work/Luiza/billing_mgmt/downloads/ALTERACAO_CONTRATUAL.PDF</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>/Users/sergio/work/Luiza/billing_mgmt/downloads/ALTERACAO_CONTRATUAL.PDF</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
